--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Dll1-Notch3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Dll1-Notch3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -92,9 +92,6 @@
   </si>
   <si>
     <t>Notch3</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>12.44223866666667</v>
+        <v>11.29255533333333</v>
       </c>
       <c r="H2">
-        <v>37.326716</v>
+        <v>33.877666</v>
       </c>
       <c r="I2">
-        <v>0.7536321101125725</v>
+        <v>0.5495662219753726</v>
       </c>
       <c r="J2">
-        <v>0.8014994705408</v>
+        <v>0.6375557499803809</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.819868333333334</v>
+        <v>2.804921333333333</v>
       </c>
       <c r="N2">
-        <v>26.459605</v>
+        <v>8.414764</v>
       </c>
       <c r="O2">
-        <v>0.06009452733181694</v>
+        <v>0.05565711987895654</v>
       </c>
       <c r="P2">
-        <v>0.08592393201160566</v>
+        <v>0.07709290030149896</v>
       </c>
       <c r="Q2">
-        <v>109.7389068119089</v>
+        <v>31.67472936231378</v>
       </c>
       <c r="R2">
-        <v>987.6501613071802</v>
+        <v>285.072564260824</v>
       </c>
       <c r="S2">
-        <v>0.04528916543929486</v>
+        <v>0.03058727309790856</v>
       </c>
       <c r="T2">
-        <v>0.06886798601408563</v>
+        <v>0.0491510218698849</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>12.44223866666667</v>
+        <v>11.29255533333333</v>
       </c>
       <c r="H3">
-        <v>37.326716</v>
+        <v>33.877666</v>
       </c>
       <c r="I3">
-        <v>0.7536321101125725</v>
+        <v>0.5495662219753726</v>
       </c>
       <c r="J3">
-        <v>0.8014994705408</v>
+        <v>0.6375557499803809</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +623,22 @@
         <v>16.457622</v>
       </c>
       <c r="O3">
-        <v>0.03737822295894862</v>
+        <v>0.1088543707912132</v>
       </c>
       <c r="P3">
-        <v>0.05344386636915803</v>
+        <v>0.1507785378230163</v>
       </c>
       <c r="Q3">
-        <v>68.25655360326134</v>
+        <v>61.94953569669467</v>
       </c>
       <c r="R3">
-        <v>614.3089824293521</v>
+        <v>557.5458212702521</v>
       </c>
       <c r="S3">
-        <v>0.02816942904081065</v>
+        <v>0.05982268530123341</v>
       </c>
       <c r="T3">
-        <v>0.04283523059853343</v>
+        <v>0.09612972376269838</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +652,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,46 +661,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>12.44223866666667</v>
+        <v>11.29255533333333</v>
       </c>
       <c r="H4">
-        <v>37.326716</v>
+        <v>33.877666</v>
       </c>
       <c r="I4">
-        <v>0.7536321101125725</v>
+        <v>0.5495662219753726</v>
       </c>
       <c r="J4">
-        <v>0.8014994705408</v>
+        <v>0.6375557499803809</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.06916233333333333</v>
+        <v>42.038395</v>
       </c>
       <c r="N4">
-        <v>0.207487</v>
+        <v>84.07679</v>
       </c>
       <c r="O4">
-        <v>0.0004712403375823902</v>
+        <v>0.8341538717071308</v>
       </c>
       <c r="P4">
-        <v>0.0006737855263255827</v>
+        <v>0.7702799019841869</v>
       </c>
       <c r="Q4">
-        <v>0.8605342580768889</v>
+        <v>474.7209016620234</v>
       </c>
       <c r="R4">
-        <v>7.744808322692</v>
+        <v>2848.32540997214</v>
       </c>
       <c r="S4">
-        <v>0.0003551418499823777</v>
+        <v>0.4584227918202176</v>
       </c>
       <c r="T4">
-        <v>0.0005400387426080088</v>
+        <v>0.4910963806043426</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,51 +723,51 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>12.44223866666667</v>
+        <v>11.29255533333333</v>
       </c>
       <c r="H5">
-        <v>37.326716</v>
+        <v>33.877666</v>
       </c>
       <c r="I5">
-        <v>0.7536321101125725</v>
+        <v>0.5495662219753726</v>
       </c>
       <c r="J5">
-        <v>0.8014994705408</v>
+        <v>0.6375557499803809</v>
       </c>
       <c r="K5">
         <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>132.35754</v>
+        <v>0.067261</v>
       </c>
       <c r="N5">
-        <v>264.71508</v>
+        <v>0.201783</v>
       </c>
       <c r="O5">
-        <v>0.9018234178214739</v>
+        <v>0.001334637622699281</v>
       </c>
       <c r="P5">
-        <v>0.8596258536877913</v>
+        <v>0.001848659891297886</v>
       </c>
       <c r="Q5">
-        <v>1646.82410201288</v>
+        <v>0.7595485642753335</v>
       </c>
       <c r="R5">
-        <v>9880.944612077281</v>
+        <v>6.835937078478</v>
       </c>
       <c r="S5">
-        <v>0.6796430853217295</v>
+        <v>0.0007334717560130365</v>
       </c>
       <c r="T5">
-        <v>0.6889896665939479</v>
+        <v>0.001178623743455073</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -779,7 +776,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,46 +785,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>12.44223866666667</v>
+        <v>0.7146796666666667</v>
       </c>
       <c r="H6">
-        <v>37.326716</v>
+        <v>2.144039</v>
       </c>
       <c r="I6">
-        <v>0.7536321101125725</v>
+        <v>0.03478077306145753</v>
       </c>
       <c r="J6">
-        <v>0.8014994705408</v>
+        <v>0.04034942645199305</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.03413666666666666</v>
+        <v>2.804921333333333</v>
       </c>
       <c r="N6">
-        <v>0.10241</v>
+        <v>8.414764</v>
       </c>
       <c r="O6">
-        <v>0.0002325915501781441</v>
+        <v>0.05565711987895654</v>
       </c>
       <c r="P6">
-        <v>0.000332562405119371</v>
+        <v>0.07709290030149896</v>
       </c>
       <c r="Q6">
-        <v>0.4247365539511111</v>
+        <v>2.004620243532889</v>
       </c>
       <c r="R6">
-        <v>3.82262898556</v>
+        <v>18.041582191796</v>
       </c>
       <c r="S6">
-        <v>0.000175288460755109</v>
+        <v>0.001935797655764324</v>
       </c>
       <c r="T6">
-        <v>0.0002665485916249509</v>
+        <v>0.003110654310686165</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +838,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,10 +853,10 @@
         <v>2.144039</v>
       </c>
       <c r="I7">
-        <v>0.04328847562517017</v>
+        <v>0.03478077306145753</v>
       </c>
       <c r="J7">
-        <v>0.04603796710428065</v>
+        <v>0.04034942645199305</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.819868333333334</v>
+        <v>5.485874</v>
       </c>
       <c r="N7">
-        <v>26.459605</v>
+        <v>16.457622</v>
       </c>
       <c r="O7">
-        <v>0.06009452733181694</v>
+        <v>0.1088543707912132</v>
       </c>
       <c r="P7">
-        <v>0.08592393201160566</v>
+        <v>0.1507785378230163</v>
       </c>
       <c r="Q7">
-        <v>6.303380560510556</v>
+        <v>3.920642601695334</v>
       </c>
       <c r="R7">
-        <v>56.73042504459501</v>
+        <v>35.285783415258</v>
       </c>
       <c r="S7">
-        <v>0.00260140048160948</v>
+        <v>0.003786039167236939</v>
       </c>
       <c r="T7">
-        <v>0.003955763155420748</v>
+        <v>0.006083827522428848</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,7 +900,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -918,40 +915,40 @@
         <v>2.144039</v>
       </c>
       <c r="I8">
-        <v>0.04328847562517017</v>
+        <v>0.03478077306145753</v>
       </c>
       <c r="J8">
-        <v>0.04603796710428065</v>
+        <v>0.04034942645199305</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.485874</v>
+        <v>42.038395</v>
       </c>
       <c r="N8">
-        <v>16.457622</v>
+        <v>84.07679</v>
       </c>
       <c r="O8">
-        <v>0.03737822295894862</v>
+        <v>0.8341538717071308</v>
       </c>
       <c r="P8">
-        <v>0.05344386636915803</v>
+        <v>0.7702799019841869</v>
       </c>
       <c r="Q8">
-        <v>3.920642601695334</v>
+        <v>30.04398612580167</v>
       </c>
       <c r="R8">
-        <v>35.285783415258</v>
+        <v>180.26391675481</v>
       </c>
       <c r="S8">
-        <v>0.001618046293470623</v>
+        <v>0.02901251651018188</v>
       </c>
       <c r="T8">
-        <v>0.002460446961828869</v>
+        <v>0.03108035225255937</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +962,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,45 +977,45 @@
         <v>2.144039</v>
       </c>
       <c r="I9">
-        <v>0.04328847562517017</v>
+        <v>0.03478077306145753</v>
       </c>
       <c r="J9">
-        <v>0.04603796710428065</v>
+        <v>0.04034942645199305</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.06916233333333333</v>
+        <v>0.067261</v>
       </c>
       <c r="N9">
-        <v>0.207487</v>
+        <v>0.201783</v>
       </c>
       <c r="O9">
-        <v>0.0004712403375823902</v>
+        <v>0.001334637622699281</v>
       </c>
       <c r="P9">
-        <v>0.0006737855263255827</v>
+        <v>0.001848659891297886</v>
       </c>
       <c r="Q9">
-        <v>0.04942891333255555</v>
+        <v>0.04807006905966667</v>
       </c>
       <c r="R9">
-        <v>0.444860219993</v>
+        <v>0.432630621537</v>
       </c>
       <c r="S9">
-        <v>2.039927586703226E-05</v>
+        <v>4.641972827438687E-05</v>
       </c>
       <c r="T9">
-        <v>3.10197158963176E-05</v>
+        <v>7.459236631867352E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
@@ -1027,60 +1024,60 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.7146796666666667</v>
+        <v>8.5075845</v>
       </c>
       <c r="H10">
-        <v>2.144039</v>
+        <v>17.015169</v>
       </c>
       <c r="I10">
-        <v>0.04328847562517017</v>
+        <v>0.4140321595768645</v>
       </c>
       <c r="J10">
-        <v>0.04603796710428065</v>
+        <v>0.3202144691088791</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>132.35754</v>
+        <v>2.804921333333333</v>
       </c>
       <c r="N10">
-        <v>264.71508</v>
+        <v>8.414764</v>
       </c>
       <c r="O10">
-        <v>0.9018234178214739</v>
+        <v>0.05565711987895654</v>
       </c>
       <c r="P10">
-        <v>0.8596258536877913</v>
+        <v>0.07709290030149896</v>
       </c>
       <c r="Q10">
-        <v>94.59324256802</v>
+        <v>23.863105259186</v>
       </c>
       <c r="R10">
-        <v>567.55945540812</v>
+        <v>143.178631555116</v>
       </c>
       <c r="S10">
-        <v>0.03903856104057253</v>
+        <v>0.02304383753931281</v>
       </c>
       <c r="T10">
-        <v>0.03957542677406771</v>
+        <v>0.02468626214210824</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1089,55 +1086,55 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.7146796666666667</v>
+        <v>8.5075845</v>
       </c>
       <c r="H11">
-        <v>2.144039</v>
+        <v>17.015169</v>
       </c>
       <c r="I11">
-        <v>0.04328847562517017</v>
+        <v>0.4140321595768645</v>
       </c>
       <c r="J11">
-        <v>0.04603796710428065</v>
+        <v>0.3202144691088791</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.03413666666666666</v>
+        <v>5.485874</v>
       </c>
       <c r="N11">
-        <v>0.10241</v>
+        <v>16.457622</v>
       </c>
       <c r="O11">
-        <v>0.0002325915501781441</v>
+        <v>0.1088543707912132</v>
       </c>
       <c r="P11">
-        <v>0.000332562405119371</v>
+        <v>0.1507785378230163</v>
       </c>
       <c r="Q11">
-        <v>0.02439678155444444</v>
+        <v>46.671536611353</v>
       </c>
       <c r="R11">
-        <v>0.21957103399</v>
+        <v>280.029219668118</v>
       </c>
       <c r="S11">
-        <v>1.006853365050713E-05</v>
+        <v>0.04506921021806678</v>
       </c>
       <c r="T11">
-        <v>1.531049706700606E-05</v>
+        <v>0.04828146944201021</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,7 +1148,7 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -1160,46 +1157,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.9579895</v>
+        <v>8.5075845</v>
       </c>
       <c r="H12">
-        <v>5.915979</v>
+        <v>17.015169</v>
       </c>
       <c r="I12">
-        <v>0.1791667824656072</v>
+        <v>0.4140321595768645</v>
       </c>
       <c r="J12">
-        <v>0.1270311065198045</v>
+        <v>0.3202144691088791</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.819868333333334</v>
+        <v>42.038395</v>
       </c>
       <c r="N12">
-        <v>26.459605</v>
+        <v>84.07679</v>
       </c>
       <c r="O12">
-        <v>0.06009452733181694</v>
+        <v>0.8341538717071308</v>
       </c>
       <c r="P12">
-        <v>0.08592393201160566</v>
+        <v>0.7702799019841869</v>
       </c>
       <c r="Q12">
-        <v>26.0890779213825</v>
+        <v>357.6451977068775</v>
       </c>
       <c r="R12">
-        <v>156.534467528295</v>
+        <v>1430.58079082751</v>
       </c>
       <c r="S12">
-        <v>0.01076694310583313</v>
+        <v>0.3453665289223062</v>
       </c>
       <c r="T12">
-        <v>0.01091501215996672</v>
+        <v>0.2466547698791059</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,7 +1210,7 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -1222,51 +1219,51 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.9579895</v>
+        <v>8.5075845</v>
       </c>
       <c r="H13">
-        <v>5.915979</v>
+        <v>17.015169</v>
       </c>
       <c r="I13">
-        <v>0.1791667824656072</v>
+        <v>0.4140321595768645</v>
       </c>
       <c r="J13">
-        <v>0.1270311065198045</v>
+        <v>0.3202144691088791</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>5.485874</v>
+        <v>0.067261</v>
       </c>
       <c r="N13">
-        <v>16.457622</v>
+        <v>0.201783</v>
       </c>
       <c r="O13">
-        <v>0.03737822295894862</v>
+        <v>0.001334637622699281</v>
       </c>
       <c r="P13">
-        <v>0.05344386636915803</v>
+        <v>0.001848659891297886</v>
       </c>
       <c r="Q13">
-        <v>16.227157690323</v>
+        <v>0.5722286410545</v>
       </c>
       <c r="R13">
-        <v>97.36294614193801</v>
+        <v>3.433371846327</v>
       </c>
       <c r="S13">
-        <v>0.00669693594183691</v>
+        <v>0.0005525828971787157</v>
       </c>
       <c r="T13">
-        <v>0.00678903348157071</v>
+        <v>0.0005919676456548307</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>24</v>
@@ -1275,60 +1272,60 @@
         <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>2.9579895</v>
+        <v>0.03330533333333333</v>
       </c>
       <c r="H14">
-        <v>5.915979</v>
+        <v>0.099916</v>
       </c>
       <c r="I14">
-        <v>0.1791667824656072</v>
+        <v>0.001620845386305282</v>
       </c>
       <c r="J14">
-        <v>0.1270311065198045</v>
+        <v>0.001880354458746944</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.06916233333333333</v>
+        <v>2.804921333333333</v>
       </c>
       <c r="N14">
-        <v>0.207487</v>
+        <v>8.414764</v>
       </c>
       <c r="O14">
-        <v>0.0004712403375823902</v>
+        <v>0.05565711987895654</v>
       </c>
       <c r="P14">
-        <v>0.0006737855263255827</v>
+        <v>0.07709290030149896</v>
       </c>
       <c r="Q14">
-        <v>0.2045814557955</v>
+        <v>0.09341883998044444</v>
       </c>
       <c r="R14">
-        <v>1.227488734773</v>
+        <v>0.840769559824</v>
       </c>
       <c r="S14">
-        <v>8.443061505264339E-05</v>
+        <v>9.021158597084672E-05</v>
       </c>
       <c r="T14">
-        <v>8.559172096616763E-05</v>
+        <v>0.0001449619788196571</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>24</v>
@@ -1337,60 +1334,60 @@
         <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>2.9579895</v>
+        <v>0.03330533333333333</v>
       </c>
       <c r="H15">
-        <v>5.915979</v>
+        <v>0.099916</v>
       </c>
       <c r="I15">
-        <v>0.1791667824656072</v>
+        <v>0.001620845386305282</v>
       </c>
       <c r="J15">
-        <v>0.1270311065198045</v>
+        <v>0.001880354458746944</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>132.35754</v>
+        <v>5.485874</v>
       </c>
       <c r="N15">
-        <v>264.71508</v>
+        <v>16.457622</v>
       </c>
       <c r="O15">
-        <v>0.9018234178214739</v>
+        <v>0.1088543707912132</v>
       </c>
       <c r="P15">
-        <v>0.8596258536877913</v>
+        <v>0.1507785378230163</v>
       </c>
       <c r="Q15">
-        <v>391.51221356583</v>
+        <v>0.1827088621946667</v>
       </c>
       <c r="R15">
-        <v>1566.04885426332</v>
+        <v>1.644379759752</v>
       </c>
       <c r="S15">
-        <v>0.1615768001232104</v>
+        <v>0.0001764361046761025</v>
       </c>
       <c r="T15">
-        <v>0.1091992233869917</v>
+        <v>0.0002835170958788534</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>24</v>
@@ -1399,55 +1396,55 @@
         <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.03330533333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.099916</v>
+      </c>
+      <c r="I16">
+        <v>0.001620845386305282</v>
+      </c>
+      <c r="J16">
+        <v>0.001880354458746944</v>
+      </c>
+      <c r="K16">
         <v>2</v>
       </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>2.9579895</v>
-      </c>
-      <c r="H16">
-        <v>5.915979</v>
-      </c>
-      <c r="I16">
-        <v>0.1791667824656072</v>
-      </c>
-      <c r="J16">
-        <v>0.1270311065198045</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.03413666666666666</v>
+        <v>42.038395</v>
       </c>
       <c r="N16">
-        <v>0.10241</v>
+        <v>84.07679</v>
       </c>
       <c r="O16">
-        <v>0.0002325915501781441</v>
+        <v>0.8341538717071308</v>
       </c>
       <c r="P16">
-        <v>0.000332562405119371</v>
+        <v>0.7702799019841869</v>
       </c>
       <c r="Q16">
-        <v>0.100975901565</v>
+        <v>1.400102758273333</v>
       </c>
       <c r="R16">
-        <v>0.6058554093899999</v>
+        <v>8.40061654964</v>
       </c>
       <c r="S16">
-        <v>4.167267967410589E-05</v>
+        <v>0.001352034454425191</v>
       </c>
       <c r="T16">
-        <v>4.224577030920119E-05</v>
+        <v>0.001448399248179125</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,303 +1458,55 @@
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.03330533333333333</v>
+      </c>
+      <c r="H17">
+        <v>0.099916</v>
+      </c>
+      <c r="I17">
+        <v>0.001620845386305282</v>
+      </c>
+      <c r="J17">
+        <v>0.001880354458746944</v>
+      </c>
+      <c r="K17">
         <v>2</v>
       </c>
-      <c r="F17">
+      <c r="L17">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G17">
-        <v>0.3947903333333333</v>
-      </c>
-      <c r="H17">
-        <v>1.184371</v>
-      </c>
-      <c r="I17">
-        <v>0.02391263179665035</v>
-      </c>
-      <c r="J17">
-        <v>0.02543145583511492</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
       <c r="M17">
-        <v>8.819868333333334</v>
+        <v>0.067261</v>
       </c>
       <c r="N17">
-        <v>26.459605</v>
+        <v>0.201783</v>
       </c>
       <c r="O17">
-        <v>0.06009452733181694</v>
+        <v>0.001334637622699281</v>
       </c>
       <c r="P17">
-        <v>0.08592393201160566</v>
+        <v>0.001848659891297886</v>
       </c>
       <c r="Q17">
-        <v>3.481998759272777</v>
+        <v>0.002240150025333333</v>
       </c>
       <c r="R17">
-        <v>31.337988833455</v>
+        <v>0.020161350228</v>
       </c>
       <c r="S17">
-        <v>0.001437018305079479</v>
+        <v>2.163241233141579E-06</v>
       </c>
       <c r="T17">
-        <v>0.002185170682132567</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-      <c r="F18">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G18">
-        <v>0.3947903333333333</v>
-      </c>
-      <c r="H18">
-        <v>1.184371</v>
-      </c>
-      <c r="I18">
-        <v>0.02391263179665035</v>
-      </c>
-      <c r="J18">
-        <v>0.02543145583511492</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>5.485874</v>
-      </c>
-      <c r="N18">
-        <v>16.457622</v>
-      </c>
-      <c r="O18">
-        <v>0.03737822295894862</v>
-      </c>
-      <c r="P18">
-        <v>0.05344386636915803</v>
-      </c>
-      <c r="Q18">
-        <v>2.165770025084667</v>
-      </c>
-      <c r="R18">
-        <v>19.491930225762</v>
-      </c>
-      <c r="S18">
-        <v>0.0008938116828304408</v>
-      </c>
-      <c r="T18">
-        <v>0.001359155327225026</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-      <c r="F19">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G19">
-        <v>0.3947903333333333</v>
-      </c>
-      <c r="H19">
-        <v>1.184371</v>
-      </c>
-      <c r="I19">
-        <v>0.02391263179665035</v>
-      </c>
-      <c r="J19">
-        <v>0.02543145583511492</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M19">
-        <v>0.06916233333333333</v>
-      </c>
-      <c r="N19">
-        <v>0.207487</v>
-      </c>
-      <c r="O19">
-        <v>0.0004712403375823902</v>
-      </c>
-      <c r="P19">
-        <v>0.0006737855263255827</v>
-      </c>
-      <c r="Q19">
-        <v>0.02730462063077777</v>
-      </c>
-      <c r="R19">
-        <v>0.2457415856769999</v>
-      </c>
-      <c r="S19">
-        <v>1.126859668033691E-05</v>
-      </c>
-      <c r="T19">
-        <v>1.713534685508872E-05</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20">
-        <v>2</v>
-      </c>
-      <c r="F20">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G20">
-        <v>0.3947903333333333</v>
-      </c>
-      <c r="H20">
-        <v>1.184371</v>
-      </c>
-      <c r="I20">
-        <v>0.02391263179665035</v>
-      </c>
-      <c r="J20">
-        <v>0.02543145583511492</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>132.35754</v>
-      </c>
-      <c r="N20">
-        <v>264.71508</v>
-      </c>
-      <c r="O20">
-        <v>0.9018234178214739</v>
-      </c>
-      <c r="P20">
-        <v>0.8596258536877913</v>
-      </c>
-      <c r="Q20">
-        <v>52.25347733578</v>
-      </c>
-      <c r="R20">
-        <v>313.5208640146799</v>
-      </c>
-      <c r="S20">
-        <v>0.02156497133596167</v>
-      </c>
-      <c r="T20">
-        <v>0.02186153693278403</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21">
-        <v>2</v>
-      </c>
-      <c r="F21">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G21">
-        <v>0.3947903333333333</v>
-      </c>
-      <c r="H21">
-        <v>1.184371</v>
-      </c>
-      <c r="I21">
-        <v>0.02391263179665035</v>
-      </c>
-      <c r="J21">
-        <v>0.02543145583511492</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M21">
-        <v>0.03413666666666666</v>
-      </c>
-      <c r="N21">
-        <v>0.10241</v>
-      </c>
-      <c r="O21">
-        <v>0.0002325915501781441</v>
-      </c>
-      <c r="P21">
-        <v>0.000332562405119371</v>
-      </c>
-      <c r="Q21">
-        <v>0.01347682601222222</v>
-      </c>
-      <c r="R21">
-        <v>0.12129143411</v>
-      </c>
-      <c r="S21">
-        <v>5.561876098422084E-06</v>
-      </c>
-      <c r="T21">
-        <v>8.457546118212881E-06</v>
+        <v>3.476135869308619E-06</v>
       </c>
     </row>
   </sheetData>
